--- a/Team-Data/2008-09/3-14-2008-09.xlsx
+++ b/Team-Data/2008-09/3-14-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -768,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
@@ -792,10 +859,10 @@
         <v>19</v>
       </c>
       <c r="AT2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
         <v>6</v>
@@ -804,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
         <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.754</v>
+        <v>0.758</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
@@ -869,7 +936,7 @@
         <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -878,55 +945,55 @@
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
         <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X3" t="n">
         <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
         <v>22.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -962,19 +1029,19 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -986,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -995,10 +1062,10 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="n">
-        <v>0.424</v>
+        <v>0.431</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1051,7 +1118,7 @@
         <v>76.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1060,7 +1127,7 @@
         <v>16</v>
       </c>
       <c r="N4" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O4" t="n">
         <v>17.7</v>
@@ -1075,13 +1142,13 @@
         <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T4" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="U4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V4" t="n">
         <v>15.5</v>
@@ -1090,37 +1157,37 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA4" t="n">
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1132,7 +1199,7 @@
         <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM4" t="n">
         <v>22</v>
@@ -1150,13 +1217,13 @@
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU4" t="n">
         <v>12</v>
@@ -1165,10 +1232,10 @@
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1177,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -1227,31 +1294,31 @@
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
         <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
         <v>12.2</v>
@@ -1266,10 +1333,10 @@
         <v>20.8</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
@@ -1281,16 +1348,16 @@
         <v>21.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1314,19 +1381,19 @@
         <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1335,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1344,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
@@ -1359,13 +1426,13 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" t="n">
         <v>52</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J6" t="n">
-        <v>78.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.469</v>
       </c>
       <c r="L6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.394</v>
+        <v>0.391</v>
       </c>
       <c r="O6" t="n">
         <v>19</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
         <v>0.755</v>
@@ -1445,34 +1512,34 @@
         <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1505,13 +1572,13 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>17</v>
@@ -1526,7 +1593,7 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1538,7 +1605,7 @@
         <v>6</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1699,7 +1766,7 @@
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
@@ -1708,10 +1775,10 @@
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
@@ -1726,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -1758,19 +1825,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="n">
         <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.627</v>
+        <v>0.621</v>
       </c>
       <c r="H8" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I8" t="n">
         <v>36.7</v>
@@ -1785,34 +1852,34 @@
         <v>6.3</v>
       </c>
       <c r="M8" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="O8" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="P8" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
         <v>0.756</v>
       </c>
       <c r="R8" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S8" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T8" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U8" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W8" t="n">
         <v>8.5</v>
@@ -1827,31 +1894,31 @@
         <v>22.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
@@ -1860,13 +1927,13 @@
         <v>7</v>
       </c>
       <c r="AL8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1881,7 +1948,7 @@
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
@@ -1905,7 +1972,7 @@
         <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2030,7 +2097,7 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2048,25 +2115,25 @@
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS9" t="n">
         <v>17</v>
       </c>
       <c r="AT9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2078,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY9" t="n">
         <v>4</v>
@@ -2087,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2224,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
@@ -2239,13 +2306,13 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
         <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2254,7 +2321,7 @@
         <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
         <v>43</v>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0.632</v>
+        <v>0.642</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2334,16 +2401,16 @@
         <v>20.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O11" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P11" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.804</v>
+        <v>0.806</v>
       </c>
       <c r="R11" t="n">
         <v>10.4</v>
@@ -2358,40 +2425,40 @@
         <v>20.4</v>
       </c>
       <c r="V11" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W11" t="n">
         <v>6.9</v>
       </c>
       <c r="X11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y11" t="n">
         <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG11" t="n">
         <v>6</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7</v>
       </c>
       <c r="AH11" t="n">
         <v>22</v>
@@ -2403,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2415,7 +2482,7 @@
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2433,19 +2500,19 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2454,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="BB11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>6</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>19</v>
@@ -2609,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -2668,55 +2735,55 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" t="n">
-        <v>0.231</v>
+        <v>0.234</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J13" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K13" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
         <v>6.4</v>
       </c>
       <c r="M13" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="O13" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P13" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R13" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S13" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T13" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="U13" t="n">
         <v>21</v>
@@ -2725,16 +2792,16 @@
         <v>14.9</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>6.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA13" t="n">
         <v>19.8</v>
@@ -2746,7 +2813,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
         <v>27</v>
@@ -2779,22 +2846,22 @@
         <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
         <v>27</v>
       </c>
       <c r="AR13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU13" t="n">
         <v>13</v>
@@ -2803,7 +2870,7 @@
         <v>19</v>
       </c>
       <c r="AW13" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,16 +2879,16 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB13" t="n">
         <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.797</v>
+        <v>0.8</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,40 +2935,40 @@
         <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O14" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P14" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
         <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
         <v>13.5</v>
@@ -2919,28 +2986,28 @@
         <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.5</v>
+        <v>108.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2958,7 +3025,7 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
@@ -2991,13 +3058,13 @@
         <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>13</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3143,7 +3210,7 @@
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -3164,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="n">
         <v>29</v>
       </c>
       <c r="G16" t="n">
-        <v>0.554</v>
+        <v>0.547</v>
       </c>
       <c r="H16" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J16" t="n">
-        <v>81.59999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K16" t="n">
         <v>0.456</v>
@@ -3241,28 +3308,28 @@
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N16" t="n">
         <v>0.355</v>
       </c>
       <c r="O16" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="P16" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.765</v>
+        <v>0.761</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T16" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="U16" t="n">
         <v>20.2</v>
@@ -3283,16 +3350,16 @@
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.8</v>
+        <v>98.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3304,10 +3371,10 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
@@ -3328,25 +3395,25 @@
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
       </c>
       <c r="AR16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
         <v>4</v>
@@ -3361,10 +3428,10 @@
         <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" t="n">
-        <v>0.448</v>
+        <v>0.441</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,46 +3481,46 @@
         <v>36.7</v>
       </c>
       <c r="J17" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
         <v>6.1</v>
       </c>
       <c r="M17" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O17" t="n">
         <v>20.2</v>
       </c>
       <c r="P17" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U17" t="n">
         <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
         <v>3.8</v>
@@ -3462,25 +3529,25 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3489,7 +3556,7 @@
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -3504,22 +3571,22 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
         <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR17" t="n">
         <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>19</v>
@@ -3537,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -3578,61 +3645,61 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
         <v>46</v>
       </c>
       <c r="G18" t="n">
-        <v>0.303</v>
+        <v>0.292</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J18" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
         <v>6.3</v>
       </c>
       <c r="M18" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="O18" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P18" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R18" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S18" t="n">
         <v>29.8</v>
       </c>
       <c r="T18" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W18" t="n">
         <v>6.4</v>
@@ -3641,22 +3708,22 @@
         <v>4.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA18" t="n">
         <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.4</v>
+        <v>-4.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,7 +3735,7 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3680,16 +3747,16 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP18" t="n">
         <v>18</v>
@@ -3707,10 +3774,10 @@
         <v>12</v>
       </c>
       <c r="AU18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV18" t="n">
         <v>17</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>16</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,13 +3917,13 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
         <v>27</v>
@@ -3871,7 +3938,7 @@
         <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
         <v>16</v>
@@ -3883,19 +3950,19 @@
         <v>19</v>
       </c>
       <c r="AS19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV19" t="n">
         <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX19" t="n">
         <v>20</v>
@@ -3907,10 +3974,10 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB19" t="n">
         <v>17</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>18</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -3942,64 +4009,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="n">
         <v>41</v>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>0.631</v>
+        <v>0.641</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J20" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O20" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.806</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T20" t="n">
         <v>39.9</v>
       </c>
       <c r="U20" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V20" t="n">
         <v>12.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
         <v>4.3</v>
@@ -4008,28 +4075,28 @@
         <v>3.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA20" t="n">
         <v>20.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG20" t="n">
         <v>7</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4044,52 +4111,52 @@
         <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM20" t="n">
         <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP20" t="n">
         <v>23</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>4</v>
       </c>
       <c r="AR20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS20" t="n">
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
@@ -4214,7 +4281,7 @@
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4250,25 +4317,25 @@
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
         <v>11</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="n">
         <v>18</v>
       </c>
       <c r="F22" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" t="n">
-        <v>0.273</v>
+        <v>0.277</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4336,31 +4403,31 @@
         <v>11.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.355</v>
+        <v>0.357</v>
       </c>
       <c r="O22" t="n">
         <v>20.3</v>
       </c>
       <c r="P22" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R22" t="n">
         <v>12.5</v>
       </c>
       <c r="S22" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T22" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V22" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W22" t="n">
         <v>7.2</v>
@@ -4372,7 +4439,7 @@
         <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA22" t="n">
         <v>20.8</v>
@@ -4381,10 +4448,10 @@
         <v>97.90000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,10 +4463,10 @@
         <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4420,7 +4487,7 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>9</v>
@@ -4432,10 +4499,10 @@
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4447,13 +4514,13 @@
         <v>22</v>
       </c>
       <c r="AY22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>24</v>
@@ -4614,16 +4681,16 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX23" t="n">
         <v>7</v>
@@ -4632,10 +4699,10 @@
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -4763,10 +4830,10 @@
         <v>27</v>
       </c>
       <c r="AI24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>16</v>
       </c>
       <c r="AK24" t="n">
         <v>13</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4814,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="n">
         <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.53</v>
+        <v>0.523</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4891,13 +4958,13 @@
         <v>26.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R25" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T25" t="n">
         <v>41.2</v>
@@ -4909,7 +4976,7 @@
         <v>16</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
@@ -4927,10 +4994,10 @@
         <v>107.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4942,13 +5009,13 @@
         <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4969,16 +5036,16 @@
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
@@ -4999,7 +5066,7 @@
         <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26" t="n">
         <v>41</v>
       </c>
       <c r="F26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.641</v>
+        <v>0.631</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
       </c>
       <c r="M26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N26" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P26" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
@@ -5082,7 +5149,7 @@
         <v>28.2</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
@@ -5097,37 +5164,37 @@
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG26" t="n">
         <v>8</v>
       </c>
-      <c r="AF26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>6</v>
-      </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
@@ -5139,19 +5206,19 @@
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,25 +5227,25 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5187,7 +5254,7 @@
         <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5306,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5321,7 +5388,7 @@
         <v>12</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN27" t="n">
         <v>15</v>
@@ -5336,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS27" t="n">
         <v>25</v>
@@ -5345,16 +5412,16 @@
         <v>30</v>
       </c>
       <c r="AU27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV27" t="n">
         <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>20</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -5398,22 +5465,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="n">
         <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>0.677</v>
+        <v>0.672</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J28" t="n">
         <v>79.7</v>
@@ -5425,10 +5492,10 @@
         <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4</v>
+        <v>0.398</v>
       </c>
       <c r="O28" t="n">
         <v>15.2</v>
@@ -5440,10 +5507,10 @@
         <v>0.767</v>
       </c>
       <c r="R28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T28" t="n">
         <v>40.9</v>
@@ -5461,7 +5528,7 @@
         <v>4.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z28" t="n">
         <v>18.8</v>
@@ -5470,13 +5537,13 @@
         <v>18.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC28" t="n">
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5491,7 +5558,7 @@
         <v>2</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>19</v>
@@ -5521,13 +5588,13 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
         <v>20</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5551,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5673,7 +5740,7 @@
         <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
         <v>18</v>
@@ -5688,10 +5755,10 @@
         <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP29" t="n">
         <v>28</v>
@@ -5709,16 +5776,16 @@
         <v>27</v>
       </c>
       <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
         <v>7</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>8</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -5762,37 +5829,37 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" t="n">
         <v>41</v>
       </c>
       <c r="F30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>0.621</v>
+        <v>0.631</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I30" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.478</v>
       </c>
       <c r="L30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M30" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="O30" t="n">
         <v>21.6</v>
@@ -5807,16 +5874,16 @@
         <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T30" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U30" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
         <v>8.800000000000001</v>
@@ -5825,40 +5892,40 @@
         <v>4.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA30" t="n">
         <v>23.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>103.5</v>
+        <v>103.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG30" t="n">
         <v>8</v>
       </c>
-      <c r="AF30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>10</v>
-      </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>3</v>
@@ -5879,13 +5946,13 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>18</v>
@@ -5894,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
@@ -5903,19 +5970,19 @@
         <v>16</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>24</v>
       </c>
       <c r="BA30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB30" t="n">
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6058,10 +6125,10 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-14-2008-09</t>
+          <t>2009-03-14</t>
         </is>
       </c>
     </row>
